--- a/Code/Results/Cases/Case_2_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011510250238925</v>
+        <v>1.032529617257471</v>
       </c>
       <c r="D2">
-        <v>1.028243119603828</v>
+        <v>1.037528786492637</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.017319614243907</v>
+        <v>1.042986474742323</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050423176631406</v>
+        <v>1.039144001547973</v>
       </c>
       <c r="J2">
-        <v>1.033352058690945</v>
+        <v>1.037659334370648</v>
       </c>
       <c r="K2">
-        <v>1.039322520682638</v>
+        <v>1.040319412124345</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.028542819464214</v>
+        <v>1.04576161424453</v>
       </c>
       <c r="N2">
-        <v>1.034819537141423</v>
+        <v>1.039132929646644</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.015736338316293</v>
+        <v>1.03339525318935</v>
       </c>
       <c r="D3">
-        <v>1.031449187411934</v>
+        <v>1.038197799438952</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.022449167097377</v>
+        <v>1.044118408323895</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051978163503305</v>
+        <v>1.03939614841432</v>
       </c>
       <c r="J3">
-        <v>1.035807017560192</v>
+        <v>1.038167729428411</v>
       </c>
       <c r="K3">
-        <v>1.041694882219752</v>
+        <v>1.040798624205863</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.032802643527384</v>
+        <v>1.046703651088362</v>
       </c>
       <c r="N3">
-        <v>1.037277982333853</v>
+        <v>1.039642046683702</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.018412955816358</v>
+        <v>1.033955458940294</v>
       </c>
       <c r="D4">
-        <v>1.033481222991291</v>
+        <v>1.03863066992763</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.025700114022511</v>
+        <v>1.044851300271604</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052951867763041</v>
+        <v>1.039557984730848</v>
       </c>
       <c r="J4">
-        <v>1.037357102477442</v>
+        <v>1.03849613209115</v>
       </c>
       <c r="K4">
-        <v>1.043191678681358</v>
+        <v>1.041108000084177</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.035497948895708</v>
+        <v>1.04731308511038</v>
       </c>
       <c r="N4">
-        <v>1.038830268549482</v>
+        <v>1.03997091571589</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.019524809001807</v>
+        <v>1.034190988009161</v>
       </c>
       <c r="D5">
-        <v>1.034325628413042</v>
+        <v>1.038812641332717</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.027051099111628</v>
+        <v>1.045159516813173</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05335363024252</v>
+        <v>1.039625704315599</v>
       </c>
       <c r="J5">
-        <v>1.037999829935092</v>
+        <v>1.038634057055776</v>
       </c>
       <c r="K5">
-        <v>1.043812028652068</v>
+        <v>1.041237891776644</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.036616946913438</v>
+        <v>1.04756926050467</v>
       </c>
       <c r="N5">
-        <v>1.039473908753844</v>
+        <v>1.040109036549786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.019710721813576</v>
+        <v>1.034230535438469</v>
       </c>
       <c r="D6">
-        <v>1.034466838287122</v>
+        <v>1.038843194666068</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.027277031404253</v>
+        <v>1.045211274098653</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053420648668646</v>
+        <v>1.039637056163441</v>
       </c>
       <c r="J6">
-        <v>1.038107230845704</v>
+        <v>1.038657207295847</v>
       </c>
       <c r="K6">
-        <v>1.043915673391035</v>
+        <v>1.041259691174978</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.036804018772058</v>
+        <v>1.047612271673215</v>
       </c>
       <c r="N6">
-        <v>1.039581462186068</v>
+        <v>1.040132219665854</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.018427864481442</v>
+        <v>1.033958606019419</v>
       </c>
       <c r="D7">
-        <v>1.03349254432593</v>
+        <v>1.038633101468856</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.025718226897831</v>
+        <v>1.044855418249003</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052957265680645</v>
+        <v>1.03955889084712</v>
       </c>
       <c r="J7">
-        <v>1.037365725362318</v>
+        <v>1.038497975584697</v>
       </c>
       <c r="K7">
-        <v>1.043200002475316</v>
+        <v>1.041109736372054</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.03551295577494</v>
+        <v>1.047316508259428</v>
       </c>
       <c r="N7">
-        <v>1.038838903679844</v>
+        <v>1.03997276182741</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012950768095054</v>
+        <v>1.03282214556159</v>
       </c>
       <c r="D8">
-        <v>1.029335619858794</v>
+        <v>1.037754887126851</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.019067678195503</v>
+        <v>1.043368922606897</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050955535075883</v>
+        <v>1.039229488689026</v>
       </c>
       <c r="J8">
-        <v>1.034189851728462</v>
+        <v>1.037831264971538</v>
       </c>
       <c r="K8">
-        <v>1.040132359061142</v>
+        <v>1.040481509861331</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.029995414423154</v>
+        <v>1.046080006075984</v>
       </c>
       <c r="N8">
-        <v>1.03565851994115</v>
+        <v>1.039305104408708</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002832997809339</v>
+        <v>1.03082022103726</v>
       </c>
       <c r="D9">
-        <v>1.021670135658247</v>
+        <v>1.036207218369327</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.006796560541213</v>
+        <v>1.040753023025616</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047170325970922</v>
+        <v>1.038638955462528</v>
       </c>
       <c r="J9">
-        <v>1.028286110732382</v>
+        <v>1.036652157056976</v>
       </c>
       <c r="K9">
-        <v>1.034421148468485</v>
+        <v>1.039369120322209</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.019780322392714</v>
+        <v>1.043900173391334</v>
       </c>
       <c r="N9">
-        <v>1.029746394955687</v>
+        <v>1.038124322025661</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9957404306156753</v>
+        <v>1.029486104016188</v>
       </c>
       <c r="D10">
-        <v>1.016308687288006</v>
+        <v>1.03517541409344</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.998200457212101</v>
+        <v>1.039011449647385</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044459734769302</v>
+        <v>1.038238514950328</v>
       </c>
       <c r="J10">
-        <v>1.024124074429513</v>
+        <v>1.035863251531616</v>
       </c>
       <c r="K10">
-        <v>1.030389597004177</v>
+        <v>1.038623961405404</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.012602279152581</v>
+        <v>1.042446323059584</v>
       </c>
       <c r="N10">
-        <v>1.025578448083876</v>
+        <v>1.037334296163966</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9925786624527079</v>
+        <v>1.028908545680963</v>
       </c>
       <c r="D11">
-        <v>1.013922167243349</v>
+        <v>1.034728640150103</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9943689322153267</v>
+        <v>1.03825788985083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043238295379051</v>
+        <v>1.038063524138836</v>
       </c>
       <c r="J11">
-        <v>1.022263470313449</v>
+        <v>1.035520983387308</v>
       </c>
       <c r="K11">
-        <v>1.028586222601769</v>
+        <v>1.038300463255754</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.009397829314832</v>
+        <v>1.041816643165579</v>
       </c>
       <c r="N11">
-        <v>1.023715201696553</v>
+        <v>1.036991541959634</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9913898649417391</v>
+        <v>1.028694034091757</v>
       </c>
       <c r="D12">
-        <v>1.013025448435888</v>
+        <v>1.034562690178108</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9929283023932975</v>
+        <v>1.037978067234994</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04277711760489</v>
+        <v>1.037998285182272</v>
       </c>
       <c r="J12">
-        <v>1.021563144728539</v>
+        <v>1.03539375022954</v>
       </c>
       <c r="K12">
-        <v>1.027907284882136</v>
+        <v>1.038180176258566</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.008192250730605</v>
+        <v>1.041582729105644</v>
       </c>
       <c r="N12">
-        <v>1.023013881568984</v>
+        <v>1.036864128116189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9916455293783756</v>
+        <v>1.028740046670083</v>
       </c>
       <c r="D13">
-        <v>1.013218270273995</v>
+        <v>1.034598286912308</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9932381280888518</v>
+        <v>1.038038086378508</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04287638553807</v>
+        <v>1.038012289994602</v>
       </c>
       <c r="J13">
-        <v>1.02171379130251</v>
+        <v>1.035421046667174</v>
       </c>
       <c r="K13">
-        <v>1.028053337444115</v>
+        <v>1.038205983889776</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.008451558019925</v>
+        <v>1.041632905500806</v>
       </c>
       <c r="N13">
-        <v>1.023164742078369</v>
+        <v>1.036891463317896</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9924806939282476</v>
+        <v>1.028890813687942</v>
       </c>
       <c r="D14">
-        <v>1.013848256465841</v>
+        <v>1.034714922631076</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9942502109516521</v>
+        <v>1.0382347579322</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043200328754022</v>
+        <v>1.038058136351231</v>
       </c>
       <c r="J14">
-        <v>1.022205771799679</v>
+        <v>1.035510468281374</v>
       </c>
       <c r="K14">
-        <v>1.028530289234042</v>
+        <v>1.038290522848538</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.009298493040442</v>
+        <v>1.041797308223248</v>
       </c>
       <c r="N14">
-        <v>1.023657421244275</v>
+        <v>1.036981011921044</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9929933377844227</v>
+        <v>1.028983708803703</v>
       </c>
       <c r="D15">
-        <v>1.014235036873671</v>
+        <v>1.034786786014682</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9948714475980113</v>
+        <v>1.038355944770748</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043398919953628</v>
+        <v>1.0380863520708</v>
       </c>
       <c r="J15">
-        <v>1.022507662579766</v>
+        <v>1.035565550720168</v>
       </c>
       <c r="K15">
-        <v>1.028822938231365</v>
+        <v>1.038342593498911</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.0098182638196</v>
+        <v>1.041898599133406</v>
       </c>
       <c r="N15">
-        <v>1.023959740743897</v>
+        <v>1.037036172583219</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9959482935889922</v>
+        <v>1.029524437322748</v>
       </c>
       <c r="D16">
-        <v>1.016465662147461</v>
+        <v>1.035205065193181</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9984523551629579</v>
+        <v>1.039061472576869</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044539766075579</v>
+        <v>1.038250094893858</v>
       </c>
       <c r="J16">
-        <v>1.024246289179405</v>
+        <v>1.035885952747515</v>
       </c>
       <c r="K16">
-        <v>1.03050803069282</v>
+        <v>1.038645413289138</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.012812849056122</v>
+        <v>1.042488109622344</v>
       </c>
       <c r="N16">
-        <v>1.025700836392731</v>
+        <v>1.037357029618196</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9977770740700502</v>
+        <v>1.029863655563767</v>
       </c>
       <c r="D17">
-        <v>1.017847138241098</v>
+        <v>1.03546744258263</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.000668602937894</v>
+        <v>1.039504179551657</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045242397342931</v>
+        <v>1.038352379058919</v>
       </c>
       <c r="J17">
-        <v>1.025320944877075</v>
+        <v>1.036086754404718</v>
       </c>
       <c r="K17">
-        <v>1.031549315091558</v>
+        <v>1.038835139924204</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.014664919269986</v>
+        <v>1.042857853050635</v>
       </c>
       <c r="N17">
-        <v>1.026777018224756</v>
+        <v>1.037558116436784</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9988350794214449</v>
+        <v>1.030061527652627</v>
       </c>
       <c r="D18">
-        <v>1.018646695855773</v>
+        <v>1.03562048319552</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.001950823107216</v>
+        <v>1.03976245639555</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04564764652989</v>
+        <v>1.038411885525309</v>
       </c>
       <c r="J18">
-        <v>1.025942168405702</v>
+        <v>1.036203814229161</v>
       </c>
       <c r="K18">
-        <v>1.03215114255479</v>
+        <v>1.038945723219482</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.015735967553819</v>
+        <v>1.043073503357978</v>
       </c>
       <c r="N18">
-        <v>1.02739912396205</v>
+        <v>1.037675342499606</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9991943798379209</v>
+        <v>1.030128998903588</v>
       </c>
       <c r="D19">
-        <v>1.018918281459928</v>
+        <v>1.035672666109102</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.002386278691151</v>
+        <v>1.039850531175893</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045785057567197</v>
+        <v>1.038432149532229</v>
       </c>
       <c r="J19">
-        <v>1.026153051667487</v>
+        <v>1.036243717663407</v>
       </c>
       <c r="K19">
-        <v>1.032355423335608</v>
+        <v>1.038983415497151</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.016099625573182</v>
+        <v>1.043147032030378</v>
       </c>
       <c r="N19">
-        <v>1.027610306702255</v>
+        <v>1.037715302601305</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9975817675262968</v>
+        <v>1.029827259427631</v>
       </c>
       <c r="D20">
-        <v>1.017699567223301</v>
+        <v>1.03543929193038</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.000431911480685</v>
+        <v>1.039456675764302</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045167487937784</v>
+        <v>1.038341420878109</v>
       </c>
       <c r="J20">
-        <v>1.025206227303967</v>
+        <v>1.036065216942119</v>
       </c>
       <c r="K20">
-        <v>1.031438170677392</v>
+        <v>1.038814792428939</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.014467170495092</v>
+        <v>1.042818184607871</v>
       </c>
       <c r="N20">
-        <v>1.026662137739537</v>
+        <v>1.037536548388518</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9922351620034695</v>
+        <v>1.028846416020027</v>
       </c>
       <c r="D21">
-        <v>1.01366302860168</v>
+        <v>1.034680576261121</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9939526673799943</v>
+        <v>1.038176840769348</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043105144654303</v>
+        <v>1.038044642352055</v>
       </c>
       <c r="J21">
-        <v>1.022061153847748</v>
+        <v>1.035484138587</v>
       </c>
       <c r="K21">
-        <v>1.028390093093137</v>
+        <v>1.038265631687502</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.009049521246089</v>
+        <v>1.04174889635082</v>
       </c>
       <c r="N21">
-        <v>1.023512597918265</v>
+        <v>1.036954644835484</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9887899465592968</v>
+        <v>1.0282298328518</v>
       </c>
       <c r="D22">
-        <v>1.011065468645637</v>
+        <v>1.034203552371548</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9897775064933904</v>
+        <v>1.037372638169754</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041765015953517</v>
+        <v>1.037856659997904</v>
       </c>
       <c r="J22">
-        <v>1.020030168893652</v>
+        <v>1.035118216039592</v>
       </c>
       <c r="K22">
-        <v>1.026420858086056</v>
+        <v>1.037919627481109</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.005554229926097</v>
+        <v>1.041076459876144</v>
       </c>
       <c r="N22">
-        <v>1.021478728732577</v>
+        <v>1.036588202636087</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9906245120853798</v>
+        <v>1.028556684373409</v>
       </c>
       <c r="D23">
-        <v>1.012448311711097</v>
+        <v>1.034456430359411</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.992000805034817</v>
+        <v>1.03779891565199</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042479671507928</v>
+        <v>1.037956444229837</v>
       </c>
       <c r="J23">
-        <v>1.021112063458307</v>
+        <v>1.035312252839411</v>
       </c>
       <c r="K23">
-        <v>1.027469937990764</v>
+        <v>1.038103119339806</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.007415881542711</v>
+        <v>1.041432943703242</v>
       </c>
       <c r="N23">
-        <v>1.022562159711608</v>
+        <v>1.036782514990418</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9976700449500622</v>
+        <v>1.029843705238377</v>
       </c>
       <c r="D24">
-        <v>1.017766267443056</v>
+        <v>1.035452011997511</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.000538894473873</v>
+        <v>1.039478140516018</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045201350416013</v>
+        <v>1.038346372884657</v>
       </c>
       <c r="J24">
-        <v>1.025258080526301</v>
+        <v>1.036074948993367</v>
       </c>
       <c r="K24">
-        <v>1.03148840913177</v>
+        <v>1.038823986836649</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.014556553125926</v>
+        <v>1.042836109115191</v>
       </c>
       <c r="N24">
-        <v>1.026714064599393</v>
+        <v>1.037546294260396</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.005507297630188</v>
+        <v>1.031337682373906</v>
       </c>
       <c r="D25">
-        <v>1.023694391136424</v>
+        <v>1.036607337445389</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.010038716916605</v>
+        <v>1.041428880556332</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048180811062322</v>
+        <v>1.038792814580899</v>
       </c>
       <c r="J25">
-        <v>1.029850730159267</v>
+        <v>1.036957487305952</v>
       </c>
       <c r="K25">
-        <v>1.035935689278017</v>
+        <v>1.039657331656603</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.022483168181011</v>
+        <v>1.04446382431318</v>
       </c>
       <c r="N25">
-        <v>1.031313236321623</v>
+        <v>1.038430085878613</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_117/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_117/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.032529617257471</v>
+        <v>1.011510250238925</v>
       </c>
       <c r="D2">
-        <v>1.037528786492637</v>
+        <v>1.028243119603828</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.042986474742323</v>
+        <v>1.017319614243906</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039144001547973</v>
+        <v>1.050423176631406</v>
       </c>
       <c r="J2">
-        <v>1.037659334370648</v>
+        <v>1.033352058690944</v>
       </c>
       <c r="K2">
-        <v>1.040319412124345</v>
+        <v>1.039322520682637</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.04576161424453</v>
+        <v>1.028542819464213</v>
       </c>
       <c r="N2">
-        <v>1.039132929646644</v>
+        <v>1.034819537141423</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03339525318935</v>
+        <v>1.015736338316293</v>
       </c>
       <c r="D3">
-        <v>1.038197799438952</v>
+        <v>1.031449187411934</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.044118408323895</v>
+        <v>1.022449167097377</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03939614841432</v>
+        <v>1.051978163503305</v>
       </c>
       <c r="J3">
-        <v>1.038167729428411</v>
+        <v>1.035807017560192</v>
       </c>
       <c r="K3">
-        <v>1.040798624205863</v>
+        <v>1.041694882219752</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.046703651088362</v>
+        <v>1.032802643527384</v>
       </c>
       <c r="N3">
-        <v>1.039642046683702</v>
+        <v>1.037277982333853</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033955458940294</v>
+        <v>1.018412955816357</v>
       </c>
       <c r="D4">
-        <v>1.03863066992763</v>
+        <v>1.033481222991289</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.044851300271604</v>
+        <v>1.02570011402251</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039557984730848</v>
+        <v>1.052951867763041</v>
       </c>
       <c r="J4">
-        <v>1.03849613209115</v>
+        <v>1.03735710247744</v>
       </c>
       <c r="K4">
-        <v>1.041108000084177</v>
+        <v>1.043191678681356</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.04731308511038</v>
+        <v>1.035497948895706</v>
       </c>
       <c r="N4">
-        <v>1.03997091571589</v>
+        <v>1.038830268549481</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034190988009161</v>
+        <v>1.019524809001805</v>
       </c>
       <c r="D5">
-        <v>1.038812641332717</v>
+        <v>1.034325628413041</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.045159516813173</v>
+        <v>1.027051099111627</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039625704315599</v>
+        <v>1.053353630242519</v>
       </c>
       <c r="J5">
-        <v>1.038634057055776</v>
+        <v>1.03799982993509</v>
       </c>
       <c r="K5">
-        <v>1.041237891776644</v>
+        <v>1.043812028652067</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.04756926050467</v>
+        <v>1.036616946913437</v>
       </c>
       <c r="N5">
-        <v>1.040109036549786</v>
+        <v>1.039473908753843</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034230535438469</v>
+        <v>1.019710721813575</v>
       </c>
       <c r="D6">
-        <v>1.038843194666068</v>
+        <v>1.034466838287121</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.045211274098653</v>
+        <v>1.027277031404252</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039637056163441</v>
+        <v>1.053420648668645</v>
       </c>
       <c r="J6">
-        <v>1.038657207295847</v>
+        <v>1.038107230845704</v>
       </c>
       <c r="K6">
-        <v>1.041259691174978</v>
+        <v>1.043915673391034</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.047612271673215</v>
+        <v>1.036804018772057</v>
       </c>
       <c r="N6">
-        <v>1.040132219665854</v>
+        <v>1.039581462186068</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033958606019419</v>
+        <v>1.018427864481442</v>
       </c>
       <c r="D7">
-        <v>1.038633101468856</v>
+        <v>1.033492544325929</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.044855418249003</v>
+        <v>1.025718226897831</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03955889084712</v>
+        <v>1.052957265680645</v>
       </c>
       <c r="J7">
-        <v>1.038497975584697</v>
+        <v>1.037365725362318</v>
       </c>
       <c r="K7">
-        <v>1.041109736372054</v>
+        <v>1.043200002475316</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.047316508259428</v>
+        <v>1.03551295577494</v>
       </c>
       <c r="N7">
-        <v>1.03997276182741</v>
+        <v>1.038838903679844</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03282214556159</v>
+        <v>1.012950768095054</v>
       </c>
       <c r="D8">
-        <v>1.037754887126851</v>
+        <v>1.029335619858794</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.043368922606897</v>
+        <v>1.019067678195503</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039229488689026</v>
+        <v>1.050955535075883</v>
       </c>
       <c r="J8">
-        <v>1.037831264971538</v>
+        <v>1.034189851728462</v>
       </c>
       <c r="K8">
-        <v>1.040481509861331</v>
+        <v>1.040132359061142</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.046080006075984</v>
+        <v>1.029995414423154</v>
       </c>
       <c r="N8">
-        <v>1.039305104408708</v>
+        <v>1.03565851994115</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.03082022103726</v>
+        <v>1.002832997809339</v>
       </c>
       <c r="D9">
-        <v>1.036207218369327</v>
+        <v>1.021670135658248</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.040753023025616</v>
+        <v>1.006796560541213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038638955462528</v>
+        <v>1.047170325970922</v>
       </c>
       <c r="J9">
-        <v>1.036652157056976</v>
+        <v>1.028286110732382</v>
       </c>
       <c r="K9">
-        <v>1.039369120322209</v>
+        <v>1.034421148468485</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.043900173391334</v>
+        <v>1.019780322392714</v>
       </c>
       <c r="N9">
-        <v>1.038124322025661</v>
+        <v>1.029746394955688</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029486104016188</v>
+        <v>0.9957404306156747</v>
       </c>
       <c r="D10">
-        <v>1.03517541409344</v>
+        <v>1.016308687288005</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.039011449647385</v>
+        <v>0.9982004572121007</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038238514950328</v>
+        <v>1.044459734769301</v>
       </c>
       <c r="J10">
-        <v>1.035863251531616</v>
+        <v>1.024124074429512</v>
       </c>
       <c r="K10">
-        <v>1.038623961405404</v>
+        <v>1.030389597004176</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.042446323059584</v>
+        <v>1.01260227915258</v>
       </c>
       <c r="N10">
-        <v>1.037334296163966</v>
+        <v>1.025578448083876</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.028908545680963</v>
+        <v>0.9925786624527079</v>
       </c>
       <c r="D11">
-        <v>1.034728640150103</v>
+        <v>1.013922167243349</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.03825788985083</v>
+        <v>0.9943689322153272</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038063524138836</v>
+        <v>1.04323829537905</v>
       </c>
       <c r="J11">
-        <v>1.035520983387308</v>
+        <v>1.022263470313449</v>
       </c>
       <c r="K11">
-        <v>1.038300463255754</v>
+        <v>1.028586222601769</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.041816643165579</v>
+        <v>1.009397829314832</v>
       </c>
       <c r="N11">
-        <v>1.036991541959634</v>
+        <v>1.023715201696553</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028694034091757</v>
+        <v>0.9913898649417382</v>
       </c>
       <c r="D12">
-        <v>1.034562690178108</v>
+        <v>1.013025448435887</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.037978067234994</v>
+        <v>0.9929283023932962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037998285182272</v>
+        <v>1.042777117604889</v>
       </c>
       <c r="J12">
-        <v>1.03539375022954</v>
+        <v>1.021563144728538</v>
       </c>
       <c r="K12">
-        <v>1.038180176258566</v>
+        <v>1.027907284882135</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.041582729105644</v>
+        <v>1.008192250730604</v>
       </c>
       <c r="N12">
-        <v>1.036864128116189</v>
+        <v>1.023013881568983</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028740046670083</v>
+        <v>0.991645529378375</v>
       </c>
       <c r="D13">
-        <v>1.034598286912308</v>
+        <v>1.013218270273994</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.038038086378508</v>
+        <v>0.993238128088851</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038012289994602</v>
+        <v>1.04287638553807</v>
       </c>
       <c r="J13">
-        <v>1.035421046667174</v>
+        <v>1.021713791302509</v>
       </c>
       <c r="K13">
-        <v>1.038205983889776</v>
+        <v>1.028053337444114</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.041632905500806</v>
+        <v>1.008451558019925</v>
       </c>
       <c r="N13">
-        <v>1.036891463317896</v>
+        <v>1.023164742078369</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.028890813687942</v>
+        <v>0.9924806939282489</v>
       </c>
       <c r="D14">
-        <v>1.034714922631076</v>
+        <v>1.013848256465842</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.0382347579322</v>
+        <v>0.9942502109516538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038058136351231</v>
+        <v>1.043200328754023</v>
       </c>
       <c r="J14">
-        <v>1.035510468281374</v>
+        <v>1.02220577179968</v>
       </c>
       <c r="K14">
-        <v>1.038290522848538</v>
+        <v>1.028530289234044</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.041797308223248</v>
+        <v>1.009298493040443</v>
       </c>
       <c r="N14">
-        <v>1.036981011921044</v>
+        <v>1.023657421244277</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.028983708803703</v>
+        <v>0.9929933377844224</v>
       </c>
       <c r="D15">
-        <v>1.034786786014682</v>
+        <v>1.014235036873671</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.038355944770748</v>
+        <v>0.994871447598011</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0380863520708</v>
+        <v>1.043398919953627</v>
       </c>
       <c r="J15">
-        <v>1.035565550720168</v>
+        <v>1.022507662579765</v>
       </c>
       <c r="K15">
-        <v>1.038342593498911</v>
+        <v>1.028822938231365</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.041898599133406</v>
+        <v>1.0098182638196</v>
       </c>
       <c r="N15">
-        <v>1.037036172583219</v>
+        <v>1.023959740743897</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.029524437322748</v>
+        <v>0.9959482935889917</v>
       </c>
       <c r="D16">
-        <v>1.035205065193181</v>
+        <v>1.016465662147461</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.039061472576869</v>
+        <v>0.9984523551629576</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038250094893858</v>
+        <v>1.044539766075579</v>
       </c>
       <c r="J16">
-        <v>1.035885952747515</v>
+        <v>1.024246289179405</v>
       </c>
       <c r="K16">
-        <v>1.038645413289138</v>
+        <v>1.03050803069282</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.042488109622344</v>
+        <v>1.012812849056122</v>
       </c>
       <c r="N16">
-        <v>1.037357029618196</v>
+        <v>1.025700836392731</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029863655563767</v>
+        <v>0.9977770740700501</v>
       </c>
       <c r="D17">
-        <v>1.03546744258263</v>
+        <v>1.017847138241098</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.039504179551657</v>
+        <v>1.000668602937894</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038352379058919</v>
+        <v>1.045242397342931</v>
       </c>
       <c r="J17">
-        <v>1.036086754404718</v>
+        <v>1.025320944877075</v>
       </c>
       <c r="K17">
-        <v>1.038835139924204</v>
+        <v>1.031549315091558</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.042857853050635</v>
+        <v>1.014664919269986</v>
       </c>
       <c r="N17">
-        <v>1.037558116436784</v>
+        <v>1.026777018224756</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030061527652627</v>
+        <v>0.9988350794214452</v>
       </c>
       <c r="D18">
-        <v>1.03562048319552</v>
+        <v>1.018646695855773</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.03976245639555</v>
+        <v>1.001950823107216</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038411885525309</v>
+        <v>1.045647646529891</v>
       </c>
       <c r="J18">
-        <v>1.036203814229161</v>
+        <v>1.025942168405702</v>
       </c>
       <c r="K18">
-        <v>1.038945723219482</v>
+        <v>1.03215114255479</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.043073503357978</v>
+        <v>1.015735967553818</v>
       </c>
       <c r="N18">
-        <v>1.037675342499606</v>
+        <v>1.02739912396205</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030128998903588</v>
+        <v>0.9991943798379204</v>
       </c>
       <c r="D19">
-        <v>1.035672666109102</v>
+        <v>1.018918281459928</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.039850531175893</v>
+        <v>1.002386278691151</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038432149532229</v>
+        <v>1.045785057567196</v>
       </c>
       <c r="J19">
-        <v>1.036243717663407</v>
+        <v>1.026153051667486</v>
       </c>
       <c r="K19">
-        <v>1.038983415497151</v>
+        <v>1.032355423335607</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.043147032030378</v>
+        <v>1.016099625573182</v>
       </c>
       <c r="N19">
-        <v>1.037715302601305</v>
+        <v>1.027610306702254</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.029827259427631</v>
+        <v>0.9975817675262965</v>
       </c>
       <c r="D20">
-        <v>1.03543929193038</v>
+        <v>1.017699567223301</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.039456675764302</v>
+        <v>1.000431911480685</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038341420878109</v>
+        <v>1.045167487937783</v>
       </c>
       <c r="J20">
-        <v>1.036065216942119</v>
+        <v>1.025206227303967</v>
       </c>
       <c r="K20">
-        <v>1.038814792428939</v>
+        <v>1.031438170677392</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.042818184607871</v>
+        <v>1.014467170495092</v>
       </c>
       <c r="N20">
-        <v>1.037536548388518</v>
+        <v>1.026662137739536</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028846416020027</v>
+        <v>0.9922351620034687</v>
       </c>
       <c r="D21">
-        <v>1.034680576261121</v>
+        <v>1.013663028601679</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.038176840769348</v>
+        <v>0.9939526673799932</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038044642352055</v>
+        <v>1.043105144654302</v>
       </c>
       <c r="J21">
-        <v>1.035484138587</v>
+        <v>1.022061153847748</v>
       </c>
       <c r="K21">
-        <v>1.038265631687502</v>
+        <v>1.028390093093136</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.04174889635082</v>
+        <v>1.009049521246088</v>
       </c>
       <c r="N21">
-        <v>1.036954644835484</v>
+        <v>1.023512597918264</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.0282298328518</v>
+        <v>0.988789946559297</v>
       </c>
       <c r="D22">
-        <v>1.034203552371548</v>
+        <v>1.011065468645638</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.037372638169754</v>
+        <v>0.9897775064933904</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037856659997904</v>
+        <v>1.041765015953517</v>
       </c>
       <c r="J22">
-        <v>1.035118216039592</v>
+        <v>1.020030168893652</v>
       </c>
       <c r="K22">
-        <v>1.037919627481109</v>
+        <v>1.026420858086056</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.041076459876144</v>
+        <v>1.005554229926097</v>
       </c>
       <c r="N22">
-        <v>1.036588202636087</v>
+        <v>1.021478728732577</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028556684373409</v>
+        <v>0.9906245120853793</v>
       </c>
       <c r="D23">
-        <v>1.034456430359411</v>
+        <v>1.012448311711097</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.03779891565199</v>
+        <v>0.9920008050348169</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037956444229837</v>
+        <v>1.042479671507927</v>
       </c>
       <c r="J23">
-        <v>1.035312252839411</v>
+        <v>1.021112063458306</v>
       </c>
       <c r="K23">
-        <v>1.038103119339806</v>
+        <v>1.027469937990763</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.041432943703242</v>
+        <v>1.007415881542711</v>
       </c>
       <c r="N23">
-        <v>1.036782514990418</v>
+        <v>1.022562159711607</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.029843705238377</v>
+        <v>0.9976700449500613</v>
       </c>
       <c r="D24">
-        <v>1.035452011997511</v>
+        <v>1.017766267443055</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.039478140516018</v>
+        <v>1.000538894473872</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038346372884657</v>
+        <v>1.045201350416012</v>
       </c>
       <c r="J24">
-        <v>1.036074948993367</v>
+        <v>1.025258080526299</v>
       </c>
       <c r="K24">
-        <v>1.038823986836649</v>
+        <v>1.031488409131769</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.042836109115191</v>
+        <v>1.014556553125926</v>
       </c>
       <c r="N24">
-        <v>1.037546294260396</v>
+        <v>1.026714064599392</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031337682373906</v>
+        <v>1.005507297630188</v>
       </c>
       <c r="D25">
-        <v>1.036607337445389</v>
+        <v>1.023694391136424</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.041428880556332</v>
+        <v>1.010038716916605</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038792814580899</v>
+        <v>1.048180811062322</v>
       </c>
       <c r="J25">
-        <v>1.036957487305952</v>
+        <v>1.029850730159267</v>
       </c>
       <c r="K25">
-        <v>1.039657331656603</v>
+        <v>1.035935689278018</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.04446382431318</v>
+        <v>1.022483168181011</v>
       </c>
       <c r="N25">
-        <v>1.038430085878613</v>
+        <v>1.031313236321623</v>
       </c>
     </row>
   </sheetData>
